--- a/GestionDeProjet/Commandes/Commande_n_2.xlsx
+++ b/GestionDeProjet/Commandes/Commande_n_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Robot_Surveillance_V3\GestionDeProjet\Commandes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD2AFFD-FE45-40F0-B51A-0D2E04CF3BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D430F8F3-CB03-49D2-BBA6-5FE5055952FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commande_2" sheetId="1" r:id="rId1"/>
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I973"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="11">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G4" s="38">
         <f>D4*E4</f>
@@ -921,7 +921,7 @@
       </c>
       <c r="F7" s="30">
         <f>SUM(F3:F6)</f>
-        <v>21.58</v>
+        <v>33.58</v>
       </c>
       <c r="G7" s="27">
         <f>SUM(G3:G6)</f>
@@ -948,7 +948,7 @@
       </c>
       <c r="F10" s="18">
         <f>F7+G7</f>
-        <v>76.14</v>
+        <v>88.14</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J972"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5335,7 +5335,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="11">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H4" s="38">
         <f>E4*F4</f>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="G7" s="34">
         <f>SUM(G3:G6)</f>
-        <v>21.58</v>
+        <v>33.58</v>
       </c>
       <c r="H7" s="35">
         <f>SUM(H3:H6)</f>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="G10" s="18">
         <f>G7+H7</f>
-        <v>76.14</v>
+        <v>88.14</v>
       </c>
       <c r="H10" s="3"/>
     </row>
